--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value408.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value408.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189700650316385</v>
+        <v>3.421395778656006</v>
       </c>
       <c r="B1">
-        <v>1.718628997399481</v>
+        <v>2.700477361679077</v>
       </c>
       <c r="C1">
-        <v>3.127461452746081</v>
+        <v>1.871700644493103</v>
       </c>
       <c r="D1">
-        <v>2.707219803102811</v>
+        <v>1.675817489624023</v>
       </c>
       <c r="E1">
-        <v>0.5258668389026597</v>
+        <v>1.62127685546875</v>
       </c>
     </row>
   </sheetData>
